--- a/skillmap_project/Pentester-Platform-Skillmap_and_Syllabus-2021.xlsx
+++ b/skillmap_project/Pentester-Platform-Skillmap_and_Syllabus-2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/プロジェクト/脆弱性診断士スキルマッププロジェクト/脆弱性診断士（プラットフォーム）スキルマップ＆シラバス2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA94218-CC67-4849-8D29-66DB7A762703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30732A6B-6046-F94E-8547-103A395AE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1500" windowWidth="45940" windowHeight="33000" xr2:uid="{8C47037C-7AB7-3A4B-B9D7-2C485EB30718}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{8C47037C-7AB7-3A4B-B9D7-2C485EB30718}"/>
   </bookViews>
   <sheets>
     <sheet name="脆弱性診断士（プラットフォーム）スキルマップ＆シラバス" sheetId="1" r:id="rId1"/>
@@ -1076,28 +1076,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1105,16 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1131,6 +1106,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,7 +1454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1470,28 +1470,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="15" t="s">
         <v>223</v>
       </c>
       <c r="I1" s="1"/>
@@ -1511,25 +1511,25 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>218</v>
       </c>
       <c r="H2" s="3"/>
@@ -1550,19 +1550,19 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1581,19 +1581,19 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1612,19 +1612,19 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1643,19 +1643,19 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1674,19 +1674,19 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1705,19 +1705,19 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1736,19 +1736,19 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1767,19 +1767,19 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1798,19 +1798,19 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1829,19 +1829,19 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1860,21 +1860,21 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>231</v>
       </c>
       <c r="H13" s="3"/>
@@ -1895,19 +1895,19 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1926,19 +1926,19 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1957,18 +1957,18 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1992,16 +1992,16 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2025,16 +2025,16 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -2058,16 +2058,16 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="84" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2091,16 +2091,16 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -2124,22 +2124,22 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="112" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2157,16 +2157,16 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2190,16 +2190,16 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -2223,16 +2223,16 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -2256,16 +2256,16 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2289,16 +2289,16 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -2322,16 +2322,16 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -2355,16 +2355,16 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -2388,16 +2388,16 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -2421,16 +2421,16 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -2454,16 +2454,16 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -2487,16 +2487,16 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -2520,16 +2520,16 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -2553,16 +2553,16 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -2586,16 +2586,16 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -2619,16 +2619,16 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -2652,16 +2652,16 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="24" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -2685,22 +2685,22 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="12" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2718,22 +2718,22 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2751,22 +2751,22 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="12" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2784,18 +2784,18 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="19" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -2819,16 +2819,16 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -2852,16 +2852,16 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="24" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -2885,16 +2885,16 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -2918,16 +2918,16 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="24" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -2951,16 +2951,16 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -2984,16 +2984,16 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="24" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3017,16 +3017,16 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -3050,16 +3050,16 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -3083,23 +3083,23 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="17" t="s">
         <v>233</v>
       </c>
       <c r="H50" s="3"/>
@@ -3120,19 +3120,19 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="3"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3151,19 +3151,19 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="3"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3182,21 +3182,21 @@
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="17" t="s">
         <v>152</v>
       </c>
       <c r="H53" s="3"/>
@@ -3217,19 +3217,19 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="3"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3248,19 +3248,19 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="3"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3279,21 +3279,21 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="19" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="17" t="s">
         <v>147</v>
       </c>
       <c r="H56" s="3"/>
@@ -3314,19 +3314,19 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="3"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3345,19 +3345,19 @@
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="3"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3376,19 +3376,19 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="3"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3407,19 +3407,19 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="3"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3438,19 +3438,19 @@
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="3"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3469,19 +3469,19 @@
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="3"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3500,19 +3500,19 @@
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="3"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3531,19 +3531,19 @@
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="9"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="3"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3562,21 +3562,21 @@
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="19" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="17" t="s">
         <v>136</v>
       </c>
       <c r="H65" s="3"/>
@@ -3597,19 +3597,19 @@
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="3"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3628,19 +3628,19 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="9"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="3"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3659,21 +3659,21 @@
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="19" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="21" t="s">
         <v>131</v>
       </c>
       <c r="H68" s="3"/>
@@ -3694,19 +3694,19 @@
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="3"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3725,19 +3725,19 @@
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="9"/>
+      <c r="G70" s="19"/>
       <c r="H70" s="3"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3756,23 +3756,23 @@
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="19" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="17" t="s">
         <v>125</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -3795,19 +3795,19 @@
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="9"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="4" t="s">
         <v>122</v>
       </c>
@@ -3828,18 +3828,18 @@
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="19" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -3863,16 +3863,16 @@
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -3896,21 +3896,21 @@
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A75" s="10"/>
-      <c r="B75" s="23" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="11" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="20" t="s">
         <v>115</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3933,21 +3933,21 @@
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="23" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="10"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="3"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3966,19 +3966,19 @@
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="18" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="3"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3997,19 +3997,19 @@
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="18" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="10"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="3"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4028,19 +4028,19 @@
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="18" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="9"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="3"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4059,22 +4059,22 @@
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="11" t="s">
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H80" s="20"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4092,13 +4092,13 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -4110,7 +4110,7 @@
       <c r="F81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="21" t="s">
         <v>236</v>
       </c>
       <c r="H81" s="3"/>
@@ -4131,9 +4131,9 @@
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="3" t="s">
         <v>103</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="F82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="9"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="3"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4162,9 +4162,9 @@
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="13" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4176,7 +4176,7 @@
       <c r="F83" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H83" s="3"/>
@@ -4197,9 +4197,9 @@
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23" ht="98" x14ac:dyDescent="0.15">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="3" t="s">
         <v>99</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="F84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="9" t="s">
         <v>237</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -4232,9 +4232,9 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" ht="84" x14ac:dyDescent="0.15">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="3" t="s">
         <v>97</v>
       </c>
@@ -4265,9 +4265,9 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="3" t="s">
         <v>95</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="G86" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="17"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4298,9 +4298,9 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="3" t="s">
         <v>93</v>
       </c>
@@ -4331,9 +4331,9 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="3" t="s">
         <v>91</v>
       </c>
@@ -4364,12 +4364,12 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="8" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="5" t="s">
         <v>4</v>
       </c>
@@ -4399,9 +4399,9 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4413,7 +4413,7 @@
       <c r="F90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="21" t="s">
         <v>238</v>
       </c>
       <c r="H90" s="3"/>
@@ -4434,9 +4434,9 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="3" t="s">
         <v>84</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="F91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="10"/>
+      <c r="G91" s="18"/>
       <c r="H91" s="3"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -4465,9 +4465,9 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="3" t="s">
         <v>83</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="F92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="10"/>
+      <c r="G92" s="18"/>
       <c r="H92" s="3"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -4496,9 +4496,9 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="10"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="3" t="s">
         <v>82</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="F93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="9"/>
+      <c r="G93" s="19"/>
       <c r="H93" s="3"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -4527,11 +4527,11 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="10"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -4564,9 +4564,9 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="9"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="4" t="s">
         <v>78</v>
       </c>
@@ -4597,12 +4597,12 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A96" s="10"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="16" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="5" t="s">
         <v>3</v>
       </c>
@@ -4630,11 +4630,11 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="10"/>
-      <c r="B97" s="19" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -4667,9 +4667,9 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="4" t="s">
         <v>72</v>
       </c>
@@ -4700,9 +4700,9 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="4" t="s">
         <v>70</v>
       </c>
@@ -4733,8 +4733,8 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
-      <c r="B100" s="19" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4770,8 +4770,8 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="4" t="s">
         <v>64</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="4" t="s">
         <v>61</v>
       </c>
@@ -4840,14 +4840,14 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A103" s="10"/>
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="5" t="s">
         <v>3</v>
       </c>
@@ -4875,9 +4875,9 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="19" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -4910,9 +4910,9 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="3" t="s">
         <v>52</v>
       </c>
@@ -4943,10 +4943,10 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="18" t="s">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -4978,12 +4978,12 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23" ht="70" x14ac:dyDescent="0.15">
-      <c r="A107" s="10"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="16" t="s">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="5" t="s">
         <v>3</v>
       </c>
@@ -5013,14 +5013,14 @@
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
-      <c r="B108" s="13" t="s">
+      <c r="A108" s="18"/>
+      <c r="B108" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="5" t="s">
         <v>3</v>
       </c>
@@ -5048,12 +5048,12 @@
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="8" t="s">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="5" t="s">
         <v>3</v>
       </c>
@@ -5083,12 +5083,12 @@
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="8" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="5" t="s">
         <v>3</v>
       </c>
@@ -5116,14 +5116,14 @@
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A111" s="10"/>
-      <c r="B111" s="13" t="s">
+      <c r="A111" s="18"/>
+      <c r="B111" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="5" t="s">
         <v>4</v>
       </c>
@@ -5151,12 +5151,12 @@
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="8" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="5" t="s">
         <v>3</v>
       </c>
@@ -5184,12 +5184,12 @@
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="8" t="s">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="5" t="s">
         <v>4</v>
       </c>
@@ -5217,12 +5217,12 @@
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="8" t="s">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="5" t="s">
         <v>3</v>
       </c>
@@ -5250,16 +5250,16 @@
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="5" t="s">
         <v>3</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="G115" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="17" t="s">
+      <c r="H115" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I115" s="1"/>
@@ -5289,19 +5289,19 @@
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23" ht="56" x14ac:dyDescent="0.15">
-      <c r="A116" s="10"/>
-      <c r="B116" s="16" t="s">
+      <c r="A116" s="18"/>
+      <c r="B116" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G116" s="14" t="s">
         <v>242</v>
       </c>
       <c r="H116" s="3"/>
@@ -5322,19 +5322,19 @@
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A117" s="9"/>
-      <c r="B117" s="16" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="G117" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H117" s="3"/>
@@ -5355,21 +5355,21 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23" ht="56" x14ac:dyDescent="0.15">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="6"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H118" s="3" t="s">
@@ -5392,11 +5392,11 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="10"/>
-      <c r="B119" s="13" t="s">
+      <c r="A119" s="18"/>
+      <c r="B119" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5411,7 +5411,7 @@
       <c r="G119" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="12"/>
+      <c r="H119" s="7"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -5429,9 +5429,9 @@
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="9"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="3" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="F120" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="3"/>
@@ -5462,8 +5462,8 @@
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23" ht="56" x14ac:dyDescent="0.15">
-      <c r="A121" s="10"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3" t="s">
         <v>9</v>
       </c>
@@ -5499,12 +5499,12 @@
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="19"/>
+      <c r="B122" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="5" t="s">
         <v>4</v>
       </c>
@@ -25887,27 +25887,32 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C16:C40"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A2:A80"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
     <mergeCell ref="A81:A114"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B2:B49"/>
@@ -25924,39 +25929,34 @@
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="C90:C93"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="A2:A80"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C16:C40"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"ヒラギノ角ゴシック W3,標準"&amp;K000000脆弱性診断士（プラットフォーム）スキルマップ＆シラバス&amp;"Arial,標準" 2021&amp;"ヒラギノ角ゴシック W3,標準"年&amp;"Arial,標準"5&amp;"ヒラギノ角ゴシック W3,標準"月公開版</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
 </worksheet>

--- a/skillmap_project/Pentester-Platform-Skillmap_and_Syllabus-2021.xlsx
+++ b/skillmap_project/Pentester-Platform-Skillmap_and_Syllabus-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/プロジェクト/脆弱性診断士スキルマッププロジェクト/脆弱性診断士（プラットフォーム）スキルマップ＆シラバス2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30732A6B-6046-F94E-8547-103A395AE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4BF29-2ED2-7044-9BCA-87F2E5BB944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{8C47037C-7AB7-3A4B-B9D7-2C485EB30718}"/>
   </bookViews>
@@ -341,33 +341,6 @@
   </si>
   <si>
     <t>診断環境による差異</t>
-  </si>
-  <si>
-    <r>
-      <t>以下の準備依頼ができる(G)
-・ホスティングやクラウドサービス</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>（AWS等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>利用時の診断許可申請依頼
-・監視サービスなどの非監視対応依頼
-・FW等で診断対象へアクセス制限している場合、アクセス許可設定依頼（アクセス制限なしで診断したい場合）
-・オンサイト診断関連（診断元IPアドレス、サブネットマスク、デフォルトゲートウェイ、電源、スイッチ接続口、作業場所・環境、入館手続き等）</t>
-    </r>
   </si>
   <si>
     <t>作業環境の準備依頼</t>
@@ -914,6 +887,25 @@
 個々の脆弱性の対策を知っていて、記述できる（S/G）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>以下の準備依頼ができる(G)
+・ホスティングやクラウドサービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>利用時の診断許可申請依頼
+・監視サービスなどの非監視対応依頼
+・FW等で診断対象へアクセス制限している場合、アクセス許可設定依頼（アクセス制限なしで診断したい場合）
+・オンサイト診断関連（診断元IPアドレス、サブネットマスク、デフォルトゲートウェイ、電源、スイッチ接続口、作業場所・環境、入館手続き等）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1108,28 +1100,28 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1471,28 +1463,28 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1511,17 +1503,17 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>220</v>
       </c>
+      <c r="C2" s="25" t="s">
+        <v>219</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
@@ -1529,8 +1521,8 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>218</v>
+      <c r="G2" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1"/>
@@ -1554,7 +1546,7 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1585,7 +1577,7 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -1616,7 +1608,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
@@ -1647,7 +1639,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
@@ -1678,7 +1670,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
@@ -1709,7 +1701,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
@@ -1740,7 +1732,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>3</v>
@@ -1771,7 +1763,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>3</v>
@@ -1802,7 +1794,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>3</v>
@@ -1833,7 +1825,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
@@ -1862,11 +1854,11 @@
     <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
-        <v>207</v>
+      <c r="C13" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>3</v>
@@ -1874,8 +1866,8 @@
       <c r="F13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>231</v>
+      <c r="G13" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
@@ -1899,7 +1891,7 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>3</v>
@@ -1930,7 +1922,7 @@
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>3</v>
@@ -1959,11 +1951,11 @@
     <row r="16" spans="1:23" ht="70" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="17" t="s">
-        <v>203</v>
+      <c r="C16" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>3</v>
@@ -1972,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -1996,7 +1988,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
@@ -2005,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
@@ -2029,7 +2021,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>3</v>
@@ -2038,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
@@ -2062,7 +2054,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>3</v>
@@ -2071,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
@@ -2095,7 +2087,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>3</v>
@@ -2104,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
@@ -2128,7 +2120,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>3</v>
@@ -2137,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
@@ -2161,7 +2153,7 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>3</v>
@@ -2170,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
@@ -2194,7 +2186,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>3</v>
@@ -2203,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
@@ -2227,7 +2219,7 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>3</v>
@@ -2236,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
@@ -2260,7 +2252,7 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>3</v>
@@ -2269,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1"/>
@@ -2293,7 +2285,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>3</v>
@@ -2302,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
@@ -2326,7 +2318,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
@@ -2335,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
@@ -2359,7 +2351,7 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>3</v>
@@ -2368,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
@@ -2392,7 +2384,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>3</v>
@@ -2401,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1"/>
@@ -2425,7 +2417,7 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>3</v>
@@ -2434,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
@@ -2458,7 +2450,7 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>3</v>
@@ -2467,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
@@ -2491,7 +2483,7 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>3</v>
@@ -2500,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
@@ -2524,7 +2516,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>3</v>
@@ -2533,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
@@ -2557,7 +2549,7 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>3</v>
@@ -2566,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -2590,7 +2582,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>3</v>
@@ -2599,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
@@ -2623,7 +2615,7 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>3</v>
@@ -2632,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
@@ -2656,7 +2648,7 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>3</v>
@@ -2665,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -2689,7 +2681,7 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>3</v>
@@ -2698,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
@@ -2722,7 +2714,7 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>3</v>
@@ -2731,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
@@ -2755,7 +2747,7 @@
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>3</v>
@@ -2764,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
@@ -2786,11 +2778,11 @@
     <row r="41" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="17" t="s">
-        <v>128</v>
+      <c r="C41" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>4</v>
@@ -2799,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
@@ -2823,7 +2815,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>4</v>
@@ -2832,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
@@ -2856,7 +2848,7 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>4</v>
@@ -2865,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1"/>
@@ -2889,7 +2881,7 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>4</v>
@@ -2898,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1"/>
@@ -2922,7 +2914,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>4</v>
@@ -2931,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1"/>
@@ -2955,7 +2947,7 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>4</v>
@@ -2964,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1"/>
@@ -2988,7 +2980,7 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>4</v>
@@ -2997,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1"/>
@@ -3021,7 +3013,7 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>4</v>
@@ -3030,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1"/>
@@ -3054,7 +3046,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>4</v>
@@ -3063,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1"/>
@@ -3084,14 +3076,14 @@
     </row>
     <row r="50" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
-      <c r="B50" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="25" t="s">
         <v>158</v>
       </c>
+      <c r="C50" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="D50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>3</v>
@@ -3099,8 +3091,8 @@
       <c r="F50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>233</v>
+      <c r="G50" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1"/>
@@ -3124,7 +3116,7 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>3</v>
@@ -3155,7 +3147,7 @@
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>3</v>
@@ -3184,11 +3176,11 @@
     <row r="53" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
-      <c r="C53" s="17" t="s">
-        <v>154</v>
+      <c r="C53" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>3</v>
@@ -3196,8 +3188,8 @@
       <c r="F53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>152</v>
+      <c r="G53" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1"/>
@@ -3221,7 +3213,7 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>3</v>
@@ -3252,7 +3244,7 @@
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>3</v>
@@ -3281,11 +3273,11 @@
     <row r="56" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
-      <c r="C56" s="17" t="s">
-        <v>149</v>
+      <c r="C56" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>3</v>
@@ -3293,8 +3285,8 @@
       <c r="F56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="17" t="s">
-        <v>147</v>
+      <c r="G56" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -3318,7 +3310,7 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>3</v>
@@ -3349,7 +3341,7 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>3</v>
@@ -3380,7 +3372,7 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>3</v>
@@ -3411,7 +3403,7 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>3</v>
@@ -3442,7 +3434,7 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>3</v>
@@ -3473,7 +3465,7 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>3</v>
@@ -3504,7 +3496,7 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>3</v>
@@ -3535,7 +3527,7 @@
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>3</v>
@@ -3564,11 +3556,11 @@
     <row r="65" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="17" t="s">
-        <v>138</v>
+      <c r="C65" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>3</v>
@@ -3576,8 +3568,8 @@
       <c r="F65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="17" t="s">
-        <v>136</v>
+      <c r="G65" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1"/>
@@ -3601,7 +3593,7 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>3</v>
@@ -3632,7 +3624,7 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>3</v>
@@ -3661,11 +3653,11 @@
     <row r="68" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="17" t="s">
-        <v>133</v>
+      <c r="C68" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>3</v>
@@ -3673,8 +3665,8 @@
       <c r="F68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="21" t="s">
-        <v>131</v>
+      <c r="G68" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="1"/>
@@ -3698,7 +3690,7 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>3</v>
@@ -3729,7 +3721,7 @@
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>3</v>
@@ -3757,14 +3749,14 @@
     </row>
     <row r="71" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
-      <c r="B71" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="17" t="s">
+      <c r="B71" s="25" t="s">
         <v>127</v>
       </c>
+      <c r="C71" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="D71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>3</v>
@@ -3772,11 +3764,11 @@
       <c r="F71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>125</v>
+      <c r="G71" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3799,7 +3791,7 @@
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>3</v>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="G72" s="19"/>
       <c r="H72" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3830,11 +3822,11 @@
     <row r="73" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="17" t="s">
-        <v>121</v>
+      <c r="C73" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>3</v>
@@ -3843,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1"/>
@@ -3867,7 +3859,7 @@
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>4</v>
@@ -3876,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1"/>
@@ -3897,11 +3889,11 @@
     </row>
     <row r="75" spans="1:23" ht="70" x14ac:dyDescent="0.15">
       <c r="A75" s="18"/>
-      <c r="B75" s="20" t="s">
-        <v>117</v>
+      <c r="B75" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="6" t="s">
@@ -3910,11 +3902,11 @@
       <c r="F75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="20" t="s">
-        <v>115</v>
+      <c r="G75" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3935,11 +3927,11 @@
     <row r="76" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
-        <v>113</v>
+      <c r="C76" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>3</v>
@@ -3970,7 +3962,7 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>3</v>
@@ -4001,7 +3993,7 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>3</v>
@@ -4032,7 +4024,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>3</v>
@@ -4060,11 +4052,11 @@
     </row>
     <row r="80" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A80" s="19"/>
-      <c r="B80" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="6" t="s">
         <v>3</v>
       </c>
@@ -4072,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="1"/>
@@ -4092,17 +4084,17 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="21" t="s">
+      <c r="A81" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="17" t="s">
         <v>105</v>
       </c>
+      <c r="C81" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>4</v>
@@ -4110,8 +4102,8 @@
       <c r="F81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="21" t="s">
-        <v>236</v>
+      <c r="G81" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1"/>
@@ -4135,7 +4127,7 @@
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>4</v>
@@ -4164,11 +4156,11 @@
     <row r="83" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="21" t="s">
-        <v>102</v>
+      <c r="C83" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>4</v>
@@ -4177,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1"/>
@@ -4201,7 +4193,7 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>4</v>
@@ -4210,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4236,7 +4228,7 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>4</v>
@@ -4245,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1"/>
@@ -4366,10 +4358,10 @@
     <row r="89" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="24"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="5" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4393,7 @@
     <row r="90" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4413,8 +4405,8 @@
       <c r="F90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="21" t="s">
-        <v>238</v>
+      <c r="G90" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="1"/>
@@ -4528,10 +4520,10 @@
     </row>
     <row r="94" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="18"/>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -4544,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="1"/>
@@ -4577,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="1"/>
@@ -4599,10 +4591,10 @@
     <row r="96" spans="1:23" ht="70" x14ac:dyDescent="0.15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="24"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="5" t="s">
         <v>3</v>
       </c>
@@ -4610,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="1"/>
@@ -4631,10 +4623,10 @@
     </row>
     <row r="97" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="18"/>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -4734,7 +4726,7 @@
     </row>
     <row r="100" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="18"/>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4841,13 +4833,13 @@
     </row>
     <row r="103" spans="1:23" ht="70" x14ac:dyDescent="0.15">
       <c r="A103" s="18"/>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D103" s="24"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="5" t="s">
         <v>3</v>
       </c>
@@ -4877,7 +4869,7 @@
     <row r="104" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -4980,10 +4972,10 @@
     <row r="107" spans="1:23" ht="70" x14ac:dyDescent="0.15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="24"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="5" t="s">
         <v>3</v>
       </c>
@@ -5014,13 +5006,13 @@
     </row>
     <row r="108" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A108" s="18"/>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="24"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="5" t="s">
         <v>3</v>
       </c>
@@ -5050,10 +5042,10 @@
     <row r="109" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="24"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="5" t="s">
         <v>3</v>
       </c>
@@ -5085,10 +5077,10 @@
     <row r="110" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="24"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="5" t="s">
         <v>3</v>
       </c>
@@ -5117,13 +5109,13 @@
     </row>
     <row r="111" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A111" s="18"/>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D111" s="24"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="5" t="s">
         <v>4</v>
       </c>
@@ -5153,10 +5145,10 @@
     <row r="112" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="24"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="5" t="s">
         <v>3</v>
       </c>
@@ -5186,10 +5178,10 @@
     <row r="113" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="24"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="5" t="s">
         <v>4</v>
       </c>
@@ -5219,10 +5211,10 @@
     <row r="114" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="24"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="5" t="s">
         <v>3</v>
       </c>
@@ -5250,16 +5242,16 @@
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="24"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="5" t="s">
         <v>3</v>
       </c>
@@ -5290,11 +5282,11 @@
     </row>
     <row r="116" spans="1:23" ht="56" x14ac:dyDescent="0.15">
       <c r="A116" s="18"/>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="5" t="s">
         <v>3</v>
       </c>
@@ -5302,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="1"/>
@@ -5323,11 +5315,11 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="19"/>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="24"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="5" t="s">
         <v>4</v>
       </c>
@@ -5355,14 +5347,14 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23" ht="56" x14ac:dyDescent="0.15">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="24"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="5" t="s">
         <v>3</v>
       </c>
@@ -5393,10 +5385,10 @@
     </row>
     <row r="119" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="18"/>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5500,11 +5492,11 @@
     </row>
     <row r="122" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A122" s="19"/>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="24"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="5" t="s">
         <v>4</v>
       </c>
@@ -25887,6 +25879,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C16:C40"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="A2:A80"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A81:A114"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B2:B49"/>
+    <mergeCell ref="B50:B70"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B75:B79"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A122"/>
     <mergeCell ref="B122:D122"/>
@@ -25903,53 +25942,6 @@
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A2:A80"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="A81:A114"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B2:B49"/>
-    <mergeCell ref="B50:B70"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="G2:G12"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C16:C40"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
